--- a/【ソースファイル共有ソフト】Soucetree使用法.xlsx
+++ b/【ソースファイル共有ソフト】Soucetree使用法.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F750A6-5C08-41B7-9E6B-FDF3448ECAA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB70CD7-A5E8-4A23-9D00-79E70B737626}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="1000" activeTab="10" xr2:uid="{D671D574-FFAC-4690-8E28-46744F32800F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="1000" activeTab="11" xr2:uid="{D671D574-FFAC-4690-8E28-46744F32800F}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎情報" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="(6)コラボレータ招待" sheetId="8" r:id="rId9"/>
     <sheet name="(7)クローン" sheetId="11" r:id="rId10"/>
     <sheet name="(８)プル" sheetId="9" r:id="rId11"/>
+    <sheet name="パターン" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'(2)インデックス追加'!$A$1:$AB$61</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Windows10</t>
     <phoneticPr fontId="1"/>
@@ -824,6 +825,28 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Ａ⇒Ｂ(プッシュ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａ：マスター　　Ｂ：ブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Ｂ:クローン作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Ａが修正し</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4371,7 +4394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEFA2EE-8C26-4EB9-8971-69860C8E135E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4385,6 +4408,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BBD2DC-98AE-4E3D-BC8D-505939BCBF49}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/【ソースファイル共有ソフト】Soucetree使用法.xlsx
+++ b/【ソースファイル共有ソフト】Soucetree使用法.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\共有フォルダ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB70CD7-A5E8-4A23-9D00-79E70B737626}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{9AB70CD7-A5E8-4A23-9D00-79E70B737626}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{274EACAD-40BF-4E3B-95E2-63873010E8E7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="1000" activeTab="11" xr2:uid="{D671D574-FFAC-4690-8E28-46744F32800F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Windows10</t>
     <phoneticPr fontId="1"/>
@@ -844,9 +844,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■Ａが修正し</t>
+    <t>■Ａが修正し、マスタへ反映の方法</t>
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａがコミットしてプッシュする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ＢがＡの変更をローカルへ反映させる方法</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Ｂが修正し、マスタへ反映の方法</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ＡがＢの変更をローカルへ反映させる方法</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4413,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BBD2DC-98AE-4E3D-BC8D-505939BCBF49}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4439,6 +4488,26 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
